--- a/data/tissue/tr010_tissue.xlsx
+++ b/data/tissue/tr010_tissue.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E31F5-C04F-4E38-A85E-71F3100978AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biopsy" sheetId="1" r:id="rId1"/>
     <sheet name="immuno" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="86">
   <si>
     <t>participant</t>
   </si>
@@ -187,9 +194,6 @@
     <t>Orientering OK</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018-02-14</t>
-  </si>
-  <si>
     <t>P12</t>
   </si>
   <si>
@@ -286,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -616,12 +620,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I506"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H503" sqref="H503"/>
+      <pane ySplit="1" topLeftCell="A485" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F282" sqref="F282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1083,7 @@
         <v>7.02</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1212,7 +1216,7 @@
         <v>10.8</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,7 +1299,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1321,7 +1325,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1347,7 +1351,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1373,7 +1377,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1399,7 +1403,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1425,7 +1429,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1451,7 +1455,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1477,7 +1481,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1503,7 +1507,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1529,7 +1533,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1555,7 +1559,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1581,7 +1585,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1608,7 +1612,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1634,7 +1638,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -1660,7 +1664,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -1686,7 +1690,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -4311,8 +4315,8 @@
       <c r="E141">
         <v>200</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>55</v>
+      <c r="F141" s="2">
+        <v>43145</v>
       </c>
       <c r="G141" s="1">
         <v>0.38541666666666669</v>
@@ -4950,7 +4954,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -4976,7 +4980,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
@@ -5002,7 +5006,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -5028,7 +5032,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -5054,7 +5058,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -5080,7 +5084,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
@@ -5106,7 +5110,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
@@ -5132,7 +5136,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
@@ -5158,7 +5162,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -5184,7 +5188,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
@@ -5210,7 +5214,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -5236,7 +5240,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -5262,7 +5266,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -5288,7 +5292,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
@@ -5340,7 +5344,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B181" t="s">
         <v>9</v>
@@ -7957,8 +7961,8 @@
       <c r="E281">
         <v>199</v>
       </c>
-      <c r="F281" s="2" t="s">
-        <v>55</v>
+      <c r="F281" s="2">
+        <v>43145</v>
       </c>
       <c r="G281" s="1">
         <v>0.38541666666666669</v>
@@ -7969,7 +7973,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -7978,7 +7982,7 @@
         <v>12</v>
       </c>
       <c r="D282" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E282">
         <v>281</v>
@@ -7998,7 +8002,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B283" t="s">
         <v>9</v>
@@ -8007,7 +8011,7 @@
         <v>12</v>
       </c>
       <c r="D283" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E283">
         <v>282</v>
@@ -8027,7 +8031,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>8</v>
@@ -8036,7 +8040,7 @@
         <v>12</v>
       </c>
       <c r="D284" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E284" s="6">
         <v>283</v>
@@ -8053,7 +8057,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>9</v>
@@ -8062,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="D285" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E285" s="6">
         <v>284</v>
@@ -8079,7 +8083,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>8</v>
@@ -8102,7 +8106,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>9</v>
@@ -8125,7 +8129,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>8</v>
@@ -8134,7 +8138,7 @@
         <v>12</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E288" s="6">
         <v>287</v>
@@ -8151,7 +8155,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B289" s="6" t="s">
         <v>9</v>
@@ -8160,7 +8164,7 @@
         <v>12</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E289" s="6">
         <v>288</v>
@@ -8177,7 +8181,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>8</v>
@@ -8186,7 +8190,7 @@
         <v>12</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E290" s="6">
         <v>289</v>
@@ -8203,7 +8207,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>9</v>
@@ -8212,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E291" s="6">
         <v>290</v>
@@ -8229,7 +8233,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>8</v>
@@ -8252,7 +8256,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>9</v>
@@ -8275,7 +8279,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B294" t="s">
         <v>9</v>
@@ -8284,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="D294" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E294" s="6">
         <v>293</v>
@@ -8301,7 +8305,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B295" t="s">
         <v>9</v>
@@ -8310,7 +8314,7 @@
         <v>12</v>
       </c>
       <c r="D295" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E295" s="6">
         <v>294</v>
@@ -8327,7 +8331,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B296" t="s">
         <v>9</v>
@@ -8350,7 +8354,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
@@ -8359,7 +8363,7 @@
         <v>12</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E297" s="6">
         <v>296</v>
@@ -8376,7 +8380,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -8385,7 +8389,7 @@
         <v>12</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E298" s="6">
         <v>297</v>
@@ -8402,7 +8406,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
@@ -8425,7 +8429,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>9</v>
@@ -8434,7 +8438,7 @@
         <v>12</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E300" s="6">
         <v>299</v>
@@ -8451,7 +8455,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>9</v>
@@ -8460,7 +8464,7 @@
         <v>12</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E301" s="6">
         <v>300</v>
@@ -8477,7 +8481,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>9</v>
@@ -8500,7 +8504,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B303" s="6" t="s">
         <v>8</v>
@@ -8509,7 +8513,7 @@
         <v>12</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E303" s="6">
         <v>302</v>
@@ -8526,7 +8530,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>8</v>
@@ -8535,7 +8539,7 @@
         <v>12</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E304" s="6">
         <v>303</v>
@@ -8552,7 +8556,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>8</v>
@@ -8575,7 +8579,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>9</v>
@@ -8584,7 +8588,7 @@
         <v>14</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E306" s="6">
         <v>305</v>
@@ -8601,7 +8605,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>9</v>
@@ -8610,7 +8614,7 @@
         <v>14</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E307" s="6">
         <v>306</v>
@@ -8627,7 +8631,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>9</v>
@@ -8650,7 +8654,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>8</v>
@@ -8659,7 +8663,7 @@
         <v>14</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E309" s="6">
         <v>308</v>
@@ -8676,7 +8680,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>8</v>
@@ -8685,7 +8689,7 @@
         <v>14</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E310" s="6">
         <v>309</v>
@@ -8702,7 +8706,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>8</v>
@@ -8723,12 +8727,12 @@
         <v>0.3125</v>
       </c>
       <c r="I311" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>9</v>
@@ -8737,7 +8741,7 @@
         <v>12</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E312" s="6">
         <v>311</v>
@@ -8754,7 +8758,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>9</v>
@@ -8763,7 +8767,7 @@
         <v>12</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E313" s="6">
         <v>312</v>
@@ -8780,7 +8784,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>9</v>
@@ -8803,7 +8807,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>8</v>
@@ -8812,7 +8816,7 @@
         <v>12</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E315" s="6">
         <v>314</v>
@@ -8829,7 +8833,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>8</v>
@@ -8838,7 +8842,7 @@
         <v>12</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E316" s="6">
         <v>315</v>
@@ -8855,7 +8859,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B317" s="6" t="s">
         <v>8</v>
@@ -8876,12 +8880,12 @@
         <v>0.3125</v>
       </c>
       <c r="I317" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B318" s="6" t="s">
         <v>9</v>
@@ -8890,7 +8894,7 @@
         <v>12</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E318" s="6">
         <v>317</v>
@@ -8907,7 +8911,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>9</v>
@@ -8916,7 +8920,7 @@
         <v>12</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E319" s="6">
         <v>318</v>
@@ -8933,7 +8937,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>9</v>
@@ -8956,7 +8960,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>8</v>
@@ -8965,7 +8969,7 @@
         <v>12</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E321" s="6">
         <v>320</v>
@@ -8982,7 +8986,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>8</v>
@@ -8991,7 +8995,7 @@
         <v>12</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E322" s="6">
         <v>321</v>
@@ -9008,7 +9012,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>8</v>
@@ -9031,7 +9035,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B324" s="6" t="s">
         <v>9</v>
@@ -9040,7 +9044,7 @@
         <v>12</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E324" s="6">
         <v>323</v>
@@ -9057,7 +9061,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>9</v>
@@ -9066,7 +9070,7 @@
         <v>12</v>
       </c>
       <c r="D325" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E325" s="6">
         <v>324</v>
@@ -9083,7 +9087,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>9</v>
@@ -9106,7 +9110,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>8</v>
@@ -9115,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E327" s="6">
         <v>326</v>
@@ -9132,7 +9136,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>8</v>
@@ -9141,7 +9145,7 @@
         <v>12</v>
       </c>
       <c r="D328" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E328" s="6">
         <v>327</v>
@@ -9158,7 +9162,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>8</v>
@@ -9181,7 +9185,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>9</v>
@@ -9190,7 +9194,7 @@
         <v>14</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E330" s="6">
         <v>329</v>
@@ -9207,7 +9211,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>9</v>
@@ -9216,7 +9220,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E331" s="6">
         <v>330</v>
@@ -9233,7 +9237,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>9</v>
@@ -9256,7 +9260,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>8</v>
@@ -9265,7 +9269,7 @@
         <v>14</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E333" s="6">
         <v>332</v>
@@ -9282,7 +9286,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>8</v>
@@ -9291,7 +9295,7 @@
         <v>14</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E334" s="6">
         <v>333</v>
@@ -9308,7 +9312,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>8</v>
@@ -9331,7 +9335,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>9</v>
@@ -9340,7 +9344,7 @@
         <v>14</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E336" s="6">
         <v>335</v>
@@ -9357,7 +9361,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>9</v>
@@ -9366,7 +9370,7 @@
         <v>14</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E337" s="6">
         <v>336</v>
@@ -9383,7 +9387,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>9</v>
@@ -9406,7 +9410,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>8</v>
@@ -9415,7 +9419,7 @@
         <v>14</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E339" s="6">
         <v>338</v>
@@ -9432,7 +9436,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>8</v>
@@ -9441,7 +9445,7 @@
         <v>14</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E340" s="6">
         <v>339</v>
@@ -9458,7 +9462,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>8</v>
@@ -9481,7 +9485,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>9</v>
@@ -9490,7 +9494,7 @@
         <v>14</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E342" s="6">
         <v>341</v>
@@ -9507,7 +9511,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>9</v>
@@ -9516,7 +9520,7 @@
         <v>14</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E343" s="6">
         <v>342</v>
@@ -9533,7 +9537,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>9</v>
@@ -9556,7 +9560,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>8</v>
@@ -9565,7 +9569,7 @@
         <v>14</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E345" s="6">
         <v>344</v>
@@ -9582,7 +9586,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>8</v>
@@ -9591,7 +9595,7 @@
         <v>14</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E346" s="6">
         <v>345</v>
@@ -9608,7 +9612,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>8</v>
@@ -9631,7 +9635,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B348" t="s">
         <v>9</v>
@@ -9640,7 +9644,7 @@
         <v>12</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E348" s="6">
         <v>347</v>
@@ -9657,7 +9661,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B349" t="s">
         <v>9</v>
@@ -9666,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E349" s="6">
         <v>348</v>
@@ -9683,7 +9687,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B350" t="s">
         <v>9</v>
@@ -9706,7 +9710,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B351" t="s">
         <v>8</v>
@@ -9715,7 +9719,7 @@
         <v>12</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E351" s="6">
         <v>350</v>
@@ -9732,7 +9736,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B352" t="s">
         <v>8</v>
@@ -9741,7 +9745,7 @@
         <v>12</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E352" s="6">
         <v>351</v>
@@ -9758,7 +9762,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B353" t="s">
         <v>8</v>
@@ -9781,7 +9785,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>9</v>
@@ -9790,7 +9794,7 @@
         <v>15</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E354" s="6">
         <v>353</v>
@@ -9807,7 +9811,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>9</v>
@@ -9816,7 +9820,7 @@
         <v>15</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E355" s="6">
         <v>354</v>
@@ -9833,7 +9837,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>9</v>
@@ -9856,7 +9860,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>8</v>
@@ -9865,7 +9869,7 @@
         <v>15</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E357" s="6">
         <v>356</v>
@@ -9882,7 +9886,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>8</v>
@@ -9891,7 +9895,7 @@
         <v>15</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E358" s="6">
         <v>357</v>
@@ -9908,7 +9912,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>8</v>
@@ -9931,7 +9935,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>9</v>
@@ -9940,7 +9944,7 @@
         <v>14</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E360" s="6">
         <v>359</v>
@@ -9957,7 +9961,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>9</v>
@@ -9966,7 +9970,7 @@
         <v>14</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E361" s="6">
         <v>360</v>
@@ -9983,7 +9987,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>9</v>
@@ -10006,7 +10010,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>8</v>
@@ -10015,7 +10019,7 @@
         <v>14</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E363" s="6">
         <v>362</v>
@@ -10032,7 +10036,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>8</v>
@@ -10041,7 +10045,7 @@
         <v>14</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E364" s="6">
         <v>363</v>
@@ -10058,7 +10062,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>8</v>
@@ -10081,7 +10085,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B366" t="s">
         <v>9</v>
@@ -10090,7 +10094,7 @@
         <v>16</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E366" s="6">
         <v>365</v>
@@ -10107,7 +10111,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B367" t="s">
         <v>9</v>
@@ -10116,7 +10120,7 @@
         <v>16</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E367" s="6">
         <v>366</v>
@@ -10133,7 +10137,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B368" t="s">
         <v>9</v>
@@ -10156,7 +10160,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B369" t="s">
         <v>8</v>
@@ -10165,7 +10169,7 @@
         <v>16</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E369" s="6">
         <v>368</v>
@@ -10182,7 +10186,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B370" t="s">
         <v>8</v>
@@ -10191,7 +10195,7 @@
         <v>16</v>
       </c>
       <c r="D370" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E370" s="6">
         <v>369</v>
@@ -10208,7 +10212,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B371" t="s">
         <v>8</v>
@@ -10231,7 +10235,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>9</v>
@@ -10240,7 +10244,7 @@
         <v>15</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E372" s="6">
         <v>371</v>
@@ -10257,7 +10261,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>9</v>
@@ -10266,7 +10270,7 @@
         <v>15</v>
       </c>
       <c r="D373" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E373" s="6">
         <v>372</v>
@@ -10283,7 +10287,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>9</v>
@@ -10306,7 +10310,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>8</v>
@@ -10315,7 +10319,7 @@
         <v>15</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E375" s="6">
         <v>374</v>
@@ -10332,7 +10336,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>8</v>
@@ -10341,7 +10345,7 @@
         <v>15</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E376" s="6">
         <v>375</v>
@@ -10358,7 +10362,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>8</v>
@@ -10381,7 +10385,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>9</v>
@@ -10390,7 +10394,7 @@
         <v>15</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E378" s="6">
         <v>377</v>
@@ -10407,7 +10411,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>9</v>
@@ -10416,7 +10420,7 @@
         <v>15</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E379" s="6">
         <v>378</v>
@@ -10433,7 +10437,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>9</v>
@@ -10456,7 +10460,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>8</v>
@@ -10465,7 +10469,7 @@
         <v>15</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E381" s="6">
         <v>380</v>
@@ -10482,7 +10486,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>8</v>
@@ -10491,7 +10495,7 @@
         <v>15</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E382" s="6">
         <v>381</v>
@@ -10508,7 +10512,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>8</v>
@@ -10531,7 +10535,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>9</v>
@@ -10540,7 +10544,7 @@
         <v>16</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E384" s="6">
         <v>383</v>
@@ -10557,7 +10561,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>9</v>
@@ -10566,7 +10570,7 @@
         <v>16</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E385" s="6">
         <v>384</v>
@@ -10583,7 +10587,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>9</v>
@@ -10606,7 +10610,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>8</v>
@@ -10615,7 +10619,7 @@
         <v>16</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E387" s="6">
         <v>386</v>
@@ -10632,7 +10636,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>8</v>
@@ -10641,7 +10645,7 @@
         <v>16</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E388" s="6">
         <v>387</v>
@@ -10658,7 +10662,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>8</v>
@@ -10681,7 +10685,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>9</v>
@@ -10690,7 +10694,7 @@
         <v>16</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E390" s="6">
         <v>389</v>
@@ -10707,7 +10711,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>9</v>
@@ -10716,7 +10720,7 @@
         <v>16</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E391" s="6">
         <v>390</v>
@@ -10733,7 +10737,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>9</v>
@@ -10756,7 +10760,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>8</v>
@@ -10765,7 +10769,7 @@
         <v>16</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E393" s="6">
         <v>392</v>
@@ -10782,7 +10786,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>8</v>
@@ -10791,7 +10795,7 @@
         <v>16</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E394" s="6">
         <v>393</v>
@@ -10808,7 +10812,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>8</v>
@@ -10831,7 +10835,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>9</v>
@@ -10840,7 +10844,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E396" s="6">
         <v>395</v>
@@ -10857,7 +10861,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>9</v>
@@ -10866,7 +10870,7 @@
         <v>15</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E397" s="6">
         <v>396</v>
@@ -10883,7 +10887,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>9</v>
@@ -10906,7 +10910,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>8</v>
@@ -10915,7 +10919,7 @@
         <v>15</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E399" s="6">
         <v>398</v>
@@ -10932,7 +10936,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>8</v>
@@ -10941,7 +10945,7 @@
         <v>15</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E400" s="6">
         <v>399</v>
@@ -10958,7 +10962,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B401" s="6" t="s">
         <v>8</v>
@@ -10981,7 +10985,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>9</v>
@@ -10990,7 +10994,7 @@
         <v>16</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E402" s="6">
         <v>401</v>
@@ -11007,7 +11011,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>9</v>
@@ -11016,7 +11020,7 @@
         <v>16</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E403" s="6">
         <v>402</v>
@@ -11033,7 +11037,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>9</v>
@@ -11056,7 +11060,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>8</v>
@@ -11065,7 +11069,7 @@
         <v>16</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E405" s="6">
         <v>404</v>
@@ -11082,7 +11086,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>8</v>
@@ -11091,7 +11095,7 @@
         <v>16</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E406" s="6">
         <v>405</v>
@@ -11108,7 +11112,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>8</v>
@@ -11131,7 +11135,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B408" s="6" t="s">
         <v>9</v>
@@ -11140,7 +11144,7 @@
         <v>17</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E408" s="6">
         <v>407</v>
@@ -11157,7 +11161,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>9</v>
@@ -11166,7 +11170,7 @@
         <v>17</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E409" s="6">
         <v>408</v>
@@ -11183,7 +11187,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>9</v>
@@ -11206,7 +11210,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>8</v>
@@ -11215,7 +11219,7 @@
         <v>17</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E411" s="6">
         <v>410</v>
@@ -11232,7 +11236,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>8</v>
@@ -11241,7 +11245,7 @@
         <v>17</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E412" s="6">
         <v>411</v>
@@ -11258,7 +11262,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>8</v>
@@ -11281,7 +11285,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>9</v>
@@ -11290,7 +11294,7 @@
         <v>18</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E414" s="6">
         <v>413</v>
@@ -11307,7 +11311,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>9</v>
@@ -11316,7 +11320,7 @@
         <v>18</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E415" s="6">
         <v>414</v>
@@ -11328,12 +11332,12 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="I415" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>9</v>
@@ -11354,12 +11358,12 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="I416" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>8</v>
@@ -11368,7 +11372,7 @@
         <v>18</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E417" s="6">
         <v>416</v>
@@ -11385,7 +11389,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>8</v>
@@ -11394,7 +11398,7 @@
         <v>18</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E418" s="6">
         <v>417</v>
@@ -11411,7 +11415,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>8</v>
@@ -11434,7 +11438,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>9</v>
@@ -11443,7 +11447,7 @@
         <v>17</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E420" s="6">
         <v>419</v>
@@ -11460,7 +11464,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>9</v>
@@ -11469,7 +11473,7 @@
         <v>17</v>
       </c>
       <c r="D421" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E421" s="6">
         <v>420</v>
@@ -11486,7 +11490,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>9</v>
@@ -11509,7 +11513,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B423" s="6" t="s">
         <v>8</v>
@@ -11518,7 +11522,7 @@
         <v>17</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E423" s="6">
         <v>422</v>
@@ -11535,7 +11539,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>8</v>
@@ -11544,7 +11548,7 @@
         <v>17</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E424" s="6">
         <v>423</v>
@@ -11561,7 +11565,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>8</v>
@@ -11584,7 +11588,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>9</v>
@@ -11593,7 +11597,7 @@
         <v>17</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E426" s="6">
         <v>425</v>
@@ -11610,7 +11614,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>9</v>
@@ -11619,7 +11623,7 @@
         <v>17</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E427" s="6">
         <v>426</v>
@@ -11636,7 +11640,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>9</v>
@@ -11659,7 +11663,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>8</v>
@@ -11668,7 +11672,7 @@
         <v>17</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E429" s="6">
         <v>428</v>
@@ -11685,7 +11689,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>8</v>
@@ -11694,7 +11698,7 @@
         <v>17</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E430" s="6">
         <v>429</v>
@@ -11711,7 +11715,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>8</v>
@@ -11734,7 +11738,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>9</v>
@@ -11743,7 +11747,7 @@
         <v>18</v>
       </c>
       <c r="D432" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E432" s="6">
         <v>431</v>
@@ -11760,7 +11764,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B433" s="6" t="s">
         <v>9</v>
@@ -11769,7 +11773,7 @@
         <v>18</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E433" s="6">
         <v>432</v>
@@ -11786,7 +11790,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>9</v>
@@ -11809,7 +11813,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B435" s="6" t="s">
         <v>8</v>
@@ -11818,7 +11822,7 @@
         <v>18</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E435" s="6">
         <v>434</v>
@@ -11835,7 +11839,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>8</v>
@@ -11844,7 +11848,7 @@
         <v>18</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E436" s="6">
         <v>435</v>
@@ -11861,7 +11865,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B437" s="6" t="s">
         <v>8</v>
@@ -11884,7 +11888,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>9</v>
@@ -11893,7 +11897,7 @@
         <v>18</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E438" s="6">
         <v>437</v>
@@ -11910,7 +11914,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>9</v>
@@ -11919,7 +11923,7 @@
         <v>18</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E439" s="6">
         <v>438</v>
@@ -11936,7 +11940,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>9</v>
@@ -11959,7 +11963,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>8</v>
@@ -11968,7 +11972,7 @@
         <v>18</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E441" s="6">
         <v>440</v>
@@ -11985,7 +11989,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>8</v>
@@ -11994,7 +11998,7 @@
         <v>18</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E442" s="6">
         <v>441</v>
@@ -12011,7 +12015,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>8</v>
@@ -12034,7 +12038,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>9</v>
@@ -12043,7 +12047,7 @@
         <v>17</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E444" s="6">
         <v>443</v>
@@ -12060,7 +12064,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>9</v>
@@ -12069,7 +12073,7 @@
         <v>17</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E445" s="6">
         <v>444</v>
@@ -12086,7 +12090,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>9</v>
@@ -12109,7 +12113,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B447" s="6" t="s">
         <v>8</v>
@@ -12118,7 +12122,7 @@
         <v>17</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E447" s="6">
         <v>446</v>
@@ -12135,7 +12139,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>8</v>
@@ -12144,7 +12148,7 @@
         <v>17</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E448" s="6">
         <v>447</v>
@@ -12161,7 +12165,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>8</v>
@@ -12184,7 +12188,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>9</v>
@@ -12193,7 +12197,7 @@
         <v>19</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E450" s="6">
         <v>449</v>
@@ -12210,7 +12214,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>9</v>
@@ -12219,7 +12223,7 @@
         <v>19</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E451" s="6">
         <v>450</v>
@@ -12236,7 +12240,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>9</v>
@@ -12259,7 +12263,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>8</v>
@@ -12268,7 +12272,7 @@
         <v>19</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E453" s="6">
         <v>452</v>
@@ -12285,7 +12289,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>8</v>
@@ -12294,7 +12298,7 @@
         <v>19</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E454" s="6">
         <v>453</v>
@@ -12311,7 +12315,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>8</v>
@@ -12334,7 +12338,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>9</v>
@@ -12343,7 +12347,7 @@
         <v>18</v>
       </c>
       <c r="D456" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E456" s="6">
         <v>455</v>
@@ -12360,7 +12364,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>9</v>
@@ -12369,7 +12373,7 @@
         <v>18</v>
       </c>
       <c r="D457" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E457" s="6">
         <v>456</v>
@@ -12386,7 +12390,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B458" s="6" t="s">
         <v>9</v>
@@ -12409,7 +12413,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>8</v>
@@ -12418,7 +12422,7 @@
         <v>18</v>
       </c>
       <c r="D459" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E459" s="6">
         <v>458</v>
@@ -12435,7 +12439,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>8</v>
@@ -12444,7 +12448,7 @@
         <v>18</v>
       </c>
       <c r="D460" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E460" s="6">
         <v>459</v>
@@ -12461,7 +12465,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>8</v>
@@ -12484,7 +12488,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>9</v>
@@ -12493,7 +12497,7 @@
         <v>19</v>
       </c>
       <c r="D462" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E462" s="6">
         <v>461</v>
@@ -12510,7 +12514,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>9</v>
@@ -12519,7 +12523,7 @@
         <v>19</v>
       </c>
       <c r="D463" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E463" s="6">
         <v>462</v>
@@ -12536,7 +12540,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>9</v>
@@ -12559,7 +12563,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>8</v>
@@ -12568,7 +12572,7 @@
         <v>19</v>
       </c>
       <c r="D465" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E465" s="6">
         <v>464</v>
@@ -12585,7 +12589,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>8</v>
@@ -12594,7 +12598,7 @@
         <v>19</v>
       </c>
       <c r="D466" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E466" s="6">
         <v>465</v>
@@ -12611,7 +12615,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>8</v>
@@ -12634,7 +12638,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B468" s="6" t="s">
         <v>9</v>
@@ -12643,7 +12647,7 @@
         <v>19</v>
       </c>
       <c r="D468" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E468" s="6">
         <v>467</v>
@@ -12660,7 +12664,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>9</v>
@@ -12669,7 +12673,7 @@
         <v>19</v>
       </c>
       <c r="D469" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E469" s="6">
         <v>468</v>
@@ -12686,7 +12690,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>9</v>
@@ -12709,7 +12713,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B471" s="6" t="s">
         <v>8</v>
@@ -12718,7 +12722,7 @@
         <v>19</v>
       </c>
       <c r="D471" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E471" s="6">
         <v>470</v>
@@ -12735,7 +12739,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>8</v>
@@ -12744,7 +12748,7 @@
         <v>19</v>
       </c>
       <c r="D472" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E472" s="6">
         <v>471</v>
@@ -12761,7 +12765,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>8</v>
@@ -12784,7 +12788,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>9</v>
@@ -12793,7 +12797,7 @@
         <v>20</v>
       </c>
       <c r="D474" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E474" s="6">
         <v>473</v>
@@ -12810,7 +12814,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>9</v>
@@ -12819,7 +12823,7 @@
         <v>20</v>
       </c>
       <c r="D475" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E475" s="6">
         <v>474</v>
@@ -12836,7 +12840,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>9</v>
@@ -12859,7 +12863,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>8</v>
@@ -12868,7 +12872,7 @@
         <v>20</v>
       </c>
       <c r="D477" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E477" s="6">
         <v>476</v>
@@ -12885,7 +12889,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>8</v>
@@ -12894,7 +12898,7 @@
         <v>20</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E478" s="6">
         <v>477</v>
@@ -12911,7 +12915,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>8</v>
@@ -12934,7 +12938,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>9</v>
@@ -12943,7 +12947,7 @@
         <v>19</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E480" s="6">
         <v>479</v>
@@ -12960,7 +12964,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>9</v>
@@ -12969,7 +12973,7 @@
         <v>19</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E481" s="6">
         <v>480</v>
@@ -12986,7 +12990,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>9</v>
@@ -13009,7 +13013,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>8</v>
@@ -13018,7 +13022,7 @@
         <v>19</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E483" s="6">
         <v>482</v>
@@ -13035,7 +13039,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B484" s="6" t="s">
         <v>8</v>
@@ -13044,7 +13048,7 @@
         <v>19</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E484" s="6">
         <v>483</v>
@@ -13061,7 +13065,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>8</v>
@@ -13084,7 +13088,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>9</v>
@@ -13093,7 +13097,7 @@
         <v>20</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E486" s="6">
         <v>485</v>
@@ -13110,7 +13114,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B487" s="6" t="s">
         <v>9</v>
@@ -13119,7 +13123,7 @@
         <v>20</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E487" s="6">
         <v>486</v>
@@ -13136,7 +13140,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>9</v>
@@ -13159,7 +13163,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B489" s="6" t="s">
         <v>8</v>
@@ -13168,7 +13172,7 @@
         <v>20</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E489" s="6">
         <v>488</v>
@@ -13185,7 +13189,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>8</v>
@@ -13194,7 +13198,7 @@
         <v>20</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E490" s="6">
         <v>489</v>
@@ -13211,7 +13215,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B491" s="6" t="s">
         <v>8</v>
@@ -13234,7 +13238,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>9</v>
@@ -13243,7 +13247,7 @@
         <v>20</v>
       </c>
       <c r="D492" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E492" s="6">
         <v>491</v>
@@ -13260,7 +13264,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B493" s="6" t="s">
         <v>9</v>
@@ -13269,7 +13273,7 @@
         <v>20</v>
       </c>
       <c r="D493" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E493" s="6">
         <v>492</v>
@@ -13286,7 +13290,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B494" s="6" t="s">
         <v>9</v>
@@ -13309,7 +13313,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>8</v>
@@ -13318,7 +13322,7 @@
         <v>20</v>
       </c>
       <c r="D495" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E495" s="6">
         <v>494</v>
@@ -13335,7 +13339,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>8</v>
@@ -13344,7 +13348,7 @@
         <v>20</v>
       </c>
       <c r="D496" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E496" s="6">
         <v>495</v>
@@ -13361,7 +13365,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>8</v>
@@ -13384,7 +13388,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B498" t="s">
         <v>9</v>
@@ -13393,7 +13397,7 @@
         <v>40</v>
       </c>
       <c r="D498" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E498" s="6">
         <v>497</v>
@@ -13410,7 +13414,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B499" t="s">
         <v>9</v>
@@ -13419,7 +13423,7 @@
         <v>40</v>
       </c>
       <c r="D499" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E499" s="6">
         <v>498</v>
@@ -13436,7 +13440,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B500" t="s">
         <v>9</v>
@@ -13459,7 +13463,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>9</v>
@@ -13468,7 +13472,7 @@
         <v>20</v>
       </c>
       <c r="D501" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E501" s="6">
         <v>500</v>
@@ -13485,7 +13489,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>9</v>
@@ -13494,7 +13498,7 @@
         <v>20</v>
       </c>
       <c r="D502" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E502" s="6">
         <v>501</v>
@@ -13511,7 +13515,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>9</v>
@@ -13534,7 +13538,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>8</v>
@@ -13543,7 +13547,7 @@
         <v>20</v>
       </c>
       <c r="D504" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E504" s="6">
         <v>503</v>
@@ -13560,7 +13564,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>8</v>
@@ -13569,7 +13573,7 @@
         <v>20</v>
       </c>
       <c r="D505" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E505" s="6">
         <v>504</v>
@@ -13586,7 +13590,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>8</v>
@@ -13608,7 +13612,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I281">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I281">
     <sortCondition ref="D2:D281"/>
     <sortCondition ref="A2:A281"/>
     <sortCondition ref="E2:E281"/>
@@ -13619,7 +13623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13643,7 +13647,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
@@ -13666,7 +13670,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -13675,7 +13679,7 @@
         <v>43124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -13698,7 +13702,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -13707,7 +13711,7 @@
         <v>43124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -13730,7 +13734,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -13739,7 +13743,7 @@
         <v>43126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -13762,7 +13766,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -13771,7 +13775,7 @@
         <v>43145</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>40</v>
@@ -13800,7 +13804,7 @@
         <v>43129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -13832,7 +13836,7 @@
         <v>43129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
@@ -13864,7 +13868,7 @@
         <v>43131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -13896,7 +13900,7 @@
         <v>43153</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
@@ -13925,7 +13929,7 @@
         <v>43136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -13957,7 +13961,7 @@
         <v>43136</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -13989,7 +13993,7 @@
         <v>43138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
@@ -14018,7 +14022,7 @@
         <v>43164</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
@@ -14033,7 +14037,7 @@
         <v>43168</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
         <v>53</v>
@@ -14041,7 +14045,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -14050,7 +14054,7 @@
         <v>43159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
@@ -14070,7 +14074,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -14079,7 +14083,7 @@
         <v>43159</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -14099,7 +14103,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -14108,7 +14112,7 @@
         <v>43161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
         <v>39</v>
@@ -14128,7 +14132,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -14137,7 +14141,7 @@
         <v>43181</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
@@ -14157,7 +14161,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -14166,7 +14170,7 @@
         <v>43159</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
@@ -14186,7 +14190,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -14195,7 +14199,7 @@
         <v>43159</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
@@ -14215,7 +14219,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -14224,7 +14228,7 @@
         <v>43161</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
@@ -14244,7 +14248,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -14253,7 +14257,7 @@
         <v>43181</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -14273,7 +14277,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -14282,7 +14286,7 @@
         <v>43181</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
@@ -14302,7 +14306,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -14311,7 +14315,7 @@
         <v>43181</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -14331,7 +14335,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>28</v>
@@ -14340,7 +14344,7 @@
         <v>43183</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>39</v>
@@ -14360,7 +14364,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -14369,7 +14373,7 @@
         <v>43216</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
@@ -14386,7 +14390,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -14395,7 +14399,7 @@
         <v>43193</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -14415,7 +14419,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -14424,7 +14428,7 @@
         <v>43193</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
@@ -14444,7 +14448,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -14453,7 +14457,7 @@
         <v>43195</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
         <v>39</v>
@@ -14468,7 +14472,7 @@
         <v>43196</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
         <v>53</v>
@@ -14476,7 +14480,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
@@ -14485,7 +14489,7 @@
         <v>43216</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
@@ -14502,7 +14506,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -14511,7 +14515,7 @@
         <v>43105</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -14534,7 +14538,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -14543,7 +14547,7 @@
         <v>43105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
@@ -14566,7 +14570,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -14575,7 +14579,7 @@
         <v>43132</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -14598,7 +14602,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -14607,7 +14611,7 @@
         <v>43138</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
         <v>47</v>
@@ -14627,7 +14631,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>
@@ -14636,7 +14640,7 @@
         <v>43138</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
@@ -14656,7 +14660,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -14665,7 +14669,7 @@
         <v>43105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -14688,7 +14692,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -14697,7 +14701,7 @@
         <v>43105</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -14720,7 +14724,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -14729,7 +14733,7 @@
         <v>43130</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
@@ -14752,7 +14756,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
         <v>28</v>
@@ -14761,7 +14765,7 @@
         <v>43130</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
@@ -14784,7 +14788,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -14793,7 +14797,7 @@
         <v>43136</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
         <v>47</v>
@@ -14816,7 +14820,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
@@ -14825,7 +14829,7 @@
         <v>43136</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
         <v>47</v>
@@ -14848,7 +14852,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
         <v>28</v>
@@ -14857,7 +14861,7 @@
         <v>43103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -14880,7 +14884,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>28</v>
@@ -14889,7 +14893,7 @@
         <v>43103</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
@@ -14912,7 +14916,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>28</v>
@@ -14921,7 +14925,7 @@
         <v>43132</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
         <v>19</v>
@@ -14944,7 +14948,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>28</v>
@@ -14953,7 +14957,7 @@
         <v>43132</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" t="s">
         <v>19</v>
@@ -14976,7 +14980,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>28</v>
@@ -14985,7 +14989,7 @@
         <v>43138</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" t="s">
         <v>47</v>
@@ -15005,7 +15009,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -15014,7 +15018,7 @@
         <v>43138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" t="s">
         <v>47</v>
@@ -15034,7 +15038,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
@@ -15043,7 +15047,7 @@
         <v>43108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -15066,7 +15070,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
@@ -15075,7 +15079,7 @@
         <v>43108</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -15098,7 +15102,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>28</v>
@@ -15107,7 +15111,7 @@
         <v>43136</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
         <v>19</v>
@@ -15130,7 +15134,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>28</v>
@@ -15139,7 +15143,7 @@
         <v>43136</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
         <v>19</v>
@@ -15162,7 +15166,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
@@ -15171,7 +15175,7 @@
         <v>43142</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>47</v>
@@ -15191,7 +15195,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
@@ -15200,7 +15204,7 @@
         <v>43142</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
         <v>47</v>
@@ -15220,7 +15224,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
@@ -15229,7 +15233,7 @@
         <v>43108</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -15252,7 +15256,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -15261,7 +15265,7 @@
         <v>43108</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
         <v>12</v>
@@ -15284,7 +15288,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
@@ -15293,7 +15297,7 @@
         <v>43136</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
@@ -15316,7 +15320,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
         <v>28</v>
@@ -15325,7 +15329,7 @@
         <v>43136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
@@ -15348,7 +15352,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -15357,7 +15361,7 @@
         <v>43142</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
         <v>47</v>
@@ -15377,7 +15381,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>28</v>
@@ -15386,7 +15390,7 @@
         <v>43142</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
         <v>47</v>
@@ -15406,7 +15410,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
@@ -15415,7 +15419,7 @@
         <v>43122</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -15438,7 +15442,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>28</v>
@@ -15447,7 +15451,7 @@
         <v>43147</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>19</v>
@@ -15467,7 +15471,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>28</v>
@@ -15476,7 +15480,7 @@
         <v>43147</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
@@ -15496,7 +15500,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
         <v>28</v>
@@ -15505,7 +15509,7 @@
         <v>43153</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" t="s">
         <v>47</v>
@@ -15525,7 +15529,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
         <v>28</v>
@@ -15534,7 +15538,7 @@
         <v>43153</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
         <v>47</v>
@@ -15554,7 +15558,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>28</v>
@@ -15563,7 +15567,7 @@
         <v>43133</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>12</v>
@@ -15586,7 +15590,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
         <v>28</v>
@@ -15595,7 +15599,7 @@
         <v>43133</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -15618,7 +15622,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
@@ -15627,7 +15631,7 @@
         <v>43177</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E66" t="s">
         <v>19</v>
@@ -15647,7 +15651,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
         <v>28</v>
@@ -15656,7 +15660,7 @@
         <v>43177</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E67" t="s">
         <v>19</v>
@@ -15677,7 +15681,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>28</v>
@@ -15686,7 +15690,7 @@
         <v>43183</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E68" t="s">
         <v>47</v>
@@ -15706,7 +15710,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -15715,7 +15719,7 @@
         <v>43183</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
         <v>47</v>
@@ -15734,7 +15738,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J69">
     <sortCondition ref="D2:D69"/>
     <sortCondition ref="A2:A69"/>
   </sortState>
